--- a/data/positive_signals/Disease - Total occurrences (B-to-X) - Valdecoxib - all categories.xlsx
+++ b/data/positive_signals/Disease - Total occurrences (B-to-X) - Valdecoxib - all categories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="597">
   <si>
     <t>pathWeight</t>
   </si>
@@ -108,7 +108,7 @@
     <t>sc 65872</t>
   </si>
   <si>
-    <t>77496198</t>
+    <t>11066999</t>
   </si>
   <si>
     <t>does not interact with</t>
@@ -120,28 +120,28 @@
     <t>cytochrome p450 3a4 (homo sapiens)</t>
   </si>
   <si>
-    <t>104611821</t>
+    <t>38253651</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>72307832</t>
-  </si>
-  <si>
-    <t>75029870</t>
+    <t>8645704</t>
   </si>
   <si>
     <t>does not inhibit</t>
   </si>
   <si>
+    <t>5942022</t>
+  </si>
+  <si>
     <t>102385</t>
   </si>
   <si>
     <t>cytochrome p450 2d6 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029864</t>
+    <t>8645697</t>
   </si>
   <si>
     <t>2395904</t>
@@ -150,10 +150,10 @@
     <t>cytochrome p450 2c9 (homo sapiens)</t>
   </si>
   <si>
-    <t>104611823</t>
-  </si>
-  <si>
-    <t>75029859</t>
+    <t>38253654</t>
+  </si>
+  <si>
+    <t>8645691</t>
   </si>
   <si>
     <t>166343</t>
@@ -162,7 +162,7 @@
     <t>cytochrome p450 2c19 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029856</t>
+    <t>8645687</t>
   </si>
   <si>
     <t>2711012</t>
@@ -171,7 +171,7 @@
     <t>cytochrome p450 1a2 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029494</t>
+    <t>8645316</t>
   </si>
   <si>
     <t>4048026</t>
@@ -180,7 +180,7 @@
     <t>lipopolysaccharides</t>
   </si>
   <si>
-    <t>85131724</t>
+    <t>18985822</t>
   </si>
   <si>
     <t>affects</t>
@@ -192,7 +192,7 @@
     <t>potassium voltage-gated channel subfamily h member 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991936</t>
+    <t>8605667</t>
   </si>
   <si>
     <t>2805035</t>
@@ -201,7 +201,7 @@
     <t>mitogen-activated protein kinase 14 (homo sapiens)</t>
   </si>
   <si>
-    <t>74992434</t>
+    <t>8606005</t>
   </si>
   <si>
     <t>570256</t>
@@ -210,7 +210,7 @@
     <t>d(2) dopamine receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029875</t>
+    <t>8645711</t>
   </si>
   <si>
     <t>2979479</t>
@@ -219,7 +219,7 @@
     <t>estrogen receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991766</t>
+    <t>8605525</t>
   </si>
   <si>
     <t>74770</t>
@@ -228,7 +228,7 @@
     <t>epidermal growth factor receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74992439</t>
+    <t>8606011</t>
   </si>
   <si>
     <t>2822796</t>
@@ -237,28 +237,28 @@
     <t>prostaglandin g/h synthase 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>69014903</t>
+    <t>2751194</t>
+  </si>
+  <si>
+    <t>981914</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>2591658</t>
   </si>
   <si>
     <t>binds with</t>
   </si>
   <si>
-    <t>67369044</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>69176497</t>
-  </si>
-  <si>
     <t>4705381</t>
   </si>
   <si>
     <t>matrix metalloproteinase-9 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991956</t>
+    <t>8605683</t>
   </si>
   <si>
     <t>2967053</t>
@@ -267,7 +267,7 @@
     <t>adenosine receptor a2a (homo sapiens)</t>
   </si>
   <si>
-    <t>75029385</t>
+    <t>8645196</t>
   </si>
   <si>
     <t>2829664</t>
@@ -276,7 +276,7 @@
     <t>mu-type opioid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991890</t>
+    <t>8605646</t>
   </si>
   <si>
     <t>693945</t>
@@ -285,7 +285,7 @@
     <t>adenosine receptor a1 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029380</t>
+    <t>8645192</t>
   </si>
   <si>
     <t>5623407</t>
@@ -294,7 +294,7 @@
     <t>delta-type opioid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991878</t>
+    <t>8605640</t>
   </si>
   <si>
     <t>4542606</t>
@@ -303,7 +303,7 @@
     <t>5-hydroxytryptamine receptor 1a (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74992465</t>
+    <t>8606028</t>
   </si>
   <si>
     <t>2793732</t>
@@ -312,7 +312,7 @@
     <t>kappa-type opioid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991883</t>
+    <t>8605642</t>
   </si>
   <si>
     <t>4716994</t>
@@ -321,7 +321,34 @@
     <t>cannabinoid receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029462</t>
+    <t>8645270</t>
+  </si>
+  <si>
+    <t>490003</t>
+  </si>
+  <si>
+    <t>cyclooxygenase 1</t>
+  </si>
+  <si>
+    <t>8645304</t>
+  </si>
+  <si>
+    <t>4741347</t>
+  </si>
+  <si>
+    <t>2591684</t>
+  </si>
+  <si>
+    <t>2751197</t>
+  </si>
+  <si>
+    <t>3755212</t>
+  </si>
+  <si>
+    <t>protein kinase c alpha</t>
+  </si>
+  <si>
+    <t>8605988</t>
   </si>
   <si>
     <t>5628940</t>
@@ -330,10 +357,10 @@
     <t>carbonic anhydrase 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>70224110</t>
-  </si>
-  <si>
-    <t>67315203</t>
+    <t>3792908</t>
+  </si>
+  <si>
+    <t>903689</t>
   </si>
   <si>
     <t>212404</t>
@@ -342,16 +369,16 @@
     <t>mitogen-activated protein kinase 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74992431</t>
-  </si>
-  <si>
-    <t>545997</t>
-  </si>
-  <si>
-    <t>sodium-dependent serotonin transporter (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74997093</t>
+    <t>8606002</t>
+  </si>
+  <si>
+    <t>5661372</t>
+  </si>
+  <si>
+    <t>sodium-dependent serotonin transporter</t>
+  </si>
+  <si>
+    <t>8610748</t>
   </si>
   <si>
     <t>2432060</t>
@@ -360,7 +387,172 @@
     <t>transmembrane domain-containing protein tmigd3 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029388</t>
+    <t>8645199</t>
+  </si>
+  <si>
+    <t>4323119</t>
+  </si>
+  <si>
+    <t>tyrosine-protein kinase lck (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8606023</t>
+  </si>
+  <si>
+    <t>4765631</t>
+  </si>
+  <si>
+    <t>beta-2 adrenergic receptors</t>
+  </si>
+  <si>
+    <t>8645233</t>
+  </si>
+  <si>
+    <t>496044</t>
+  </si>
+  <si>
+    <t>acetylcholinesterase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8645190</t>
+  </si>
+  <si>
+    <t>2986614</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine receptor 2a (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8610726</t>
+  </si>
+  <si>
+    <t>1110022</t>
+  </si>
+  <si>
+    <t>alpha-1d adrenergic receptor (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>8645205</t>
+  </si>
+  <si>
+    <t>4394972</t>
+  </si>
+  <si>
+    <t>neutrophil elastase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605678</t>
+  </si>
+  <si>
+    <t>2969074</t>
+  </si>
+  <si>
+    <t>estrogen receptor beta (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605529</t>
+  </si>
+  <si>
+    <t>4528</t>
+  </si>
+  <si>
+    <t>alpha-1b adrenergic receptor (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>8645208</t>
+  </si>
+  <si>
+    <t>1571756</t>
+  </si>
+  <si>
+    <t>interstitial collagenase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605681</t>
+  </si>
+  <si>
+    <t>746283</t>
+  </si>
+  <si>
+    <t>substance-p receptor (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8610760</t>
+  </si>
+  <si>
+    <t>4637406</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine receptor 2c (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8610735</t>
+  </si>
+  <si>
+    <t>802574</t>
+  </si>
+  <si>
+    <t>receptors, adrenergic, beta-1</t>
+  </si>
+  <si>
+    <t>8645230</t>
+  </si>
+  <si>
+    <t>836206</t>
+  </si>
+  <si>
+    <t>vascular endothelial growth factor receptor-1</t>
+  </si>
+  <si>
+    <t>8610771</t>
+  </si>
+  <si>
+    <t>2997460</t>
+  </si>
+  <si>
+    <t>d(3) dopamine receptor (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8645723</t>
+  </si>
+  <si>
+    <t>3153376</t>
+  </si>
+  <si>
+    <t>c-c chemokine receptor type 5 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8645289</t>
+  </si>
+  <si>
+    <t>521981</t>
+  </si>
+  <si>
+    <t>muscarinic acetylcholine receptor m1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605603</t>
+  </si>
+  <si>
+    <t>4677815</t>
+  </si>
+  <si>
+    <t>carbonic anhydrase 1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>2520025</t>
+  </si>
+  <si>
+    <t>903688</t>
+  </si>
+  <si>
+    <t>253194</t>
+  </si>
+  <si>
+    <t>sodium-dependent dopamine transporter (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8645731</t>
   </si>
   <si>
     <t>400857</t>
@@ -369,193 +561,19 @@
     <t>sodium-dependent noradrenaline transporter (homo sapiens)</t>
   </si>
   <si>
-    <t>75029437</t>
-  </si>
-  <si>
-    <t>75029439</t>
-  </si>
-  <si>
-    <t>4323119</t>
-  </si>
-  <si>
-    <t>tyrosine-protein kinase lck (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74992455</t>
-  </si>
-  <si>
-    <t>483817</t>
-  </si>
-  <si>
-    <t>erbb-2 receptor</t>
-  </si>
-  <si>
-    <t>74992451</t>
-  </si>
-  <si>
-    <t>496044</t>
-  </si>
-  <si>
-    <t>acetylcholinesterase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029377</t>
-  </si>
-  <si>
-    <t>2986614</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptamine receptor 2a (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74997072</t>
-  </si>
-  <si>
-    <t>1110022</t>
-  </si>
-  <si>
-    <t>alpha-1d adrenergic receptor (rattus norvegicus)</t>
-  </si>
-  <si>
-    <t>75029392</t>
-  </si>
-  <si>
-    <t>330126</t>
-  </si>
-  <si>
-    <t>progesterone receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74991939</t>
-  </si>
-  <si>
-    <t>4394972</t>
-  </si>
-  <si>
-    <t>neutrophil elastase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74991947</t>
-  </si>
-  <si>
-    <t>2969074</t>
-  </si>
-  <si>
-    <t>estrogen receptor beta (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74991768</t>
-  </si>
-  <si>
-    <t>684007</t>
-  </si>
-  <si>
-    <t>protein kinase c alpha type (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74992412</t>
-  </si>
-  <si>
-    <t>4528</t>
-  </si>
-  <si>
-    <t>alpha-1b adrenergic receptor (rattus norvegicus)</t>
-  </si>
-  <si>
-    <t>75029395</t>
-  </si>
-  <si>
-    <t>1571756</t>
-  </si>
-  <si>
-    <t>interstitial collagenase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74991951</t>
-  </si>
-  <si>
-    <t>746283</t>
-  </si>
-  <si>
-    <t>substance-p receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74997105</t>
-  </si>
-  <si>
-    <t>4637406</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptamine receptor 2c (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74997081</t>
-  </si>
-  <si>
-    <t>2997460</t>
-  </si>
-  <si>
-    <t>d(3) dopamine receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029883</t>
-  </si>
-  <si>
-    <t>3153376</t>
-  </si>
-  <si>
-    <t>c-c chemokine receptor type 5 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029476</t>
-  </si>
-  <si>
-    <t>521981</t>
-  </si>
-  <si>
-    <t>muscarinic acetylcholine receptor m1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74991834</t>
-  </si>
-  <si>
-    <t>4677815</t>
-  </si>
-  <si>
-    <t>carbonic anhydrase 1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>67324832</t>
-  </si>
-  <si>
-    <t>68943434</t>
-  </si>
-  <si>
-    <t>244719</t>
-  </si>
-  <si>
-    <t>prostaglandin g/h synthase 1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>71180143</t>
-  </si>
-  <si>
-    <t>69176502</t>
-  </si>
-  <si>
-    <t>75029485</t>
-  </si>
-  <si>
-    <t>69014944</t>
-  </si>
-  <si>
-    <t>253194</t>
-  </si>
-  <si>
-    <t>sodium-dependent dopamine transporter (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029889</t>
+    <t>8645246</t>
+  </si>
+  <si>
+    <t>8645248</t>
+  </si>
+  <si>
+    <t>769867</t>
+  </si>
+  <si>
+    <t>receptor tyrosine-protein kinase erbb-2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8606020</t>
   </si>
   <si>
     <t>172736</t>
@@ -564,16 +582,7 @@
     <t>muscarinic acetylcholine receptor m2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991838</t>
-  </si>
-  <si>
-    <t>2139565</t>
-  </si>
-  <si>
-    <t>beta-2 adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029423</t>
+    <t>8605605</t>
   </si>
   <si>
     <t>605141</t>
@@ -582,7 +591,16 @@
     <t>melanocortin receptor 4 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991828</t>
+    <t>8605595</t>
+  </si>
+  <si>
+    <t>4437642</t>
+  </si>
+  <si>
+    <t>muscarinic acetylcholine receptor m3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605607</t>
   </si>
   <si>
     <t>4297890</t>
@@ -591,34 +609,7 @@
     <t>5-hydroxytryptamine receptor 6 (homo sapiens)</t>
   </si>
   <si>
-    <t>74997089</t>
-  </si>
-  <si>
-    <t>1109381</t>
-  </si>
-  <si>
-    <t>beta-1 adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029420</t>
-  </si>
-  <si>
-    <t>4437642</t>
-  </si>
-  <si>
-    <t>muscarinic acetylcholine receptor m3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74991841</t>
-  </si>
-  <si>
-    <t>282994</t>
-  </si>
-  <si>
-    <t>vascular endothelial growth factor receptor 1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74997125</t>
+    <t>8610743</t>
   </si>
   <si>
     <t>2973263</t>
@@ -627,7 +618,7 @@
     <t>d(4) dopamine receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029886</t>
+    <t>8645727</t>
   </si>
   <si>
     <t>2831820</t>
@@ -636,7 +627,7 @@
     <t>glucocorticoid receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991777</t>
+    <t>8605538</t>
   </si>
   <si>
     <t>4676220</t>
@@ -645,7 +636,7 @@
     <t>amine oxidase [flavin-containing] a (homo sapiens)</t>
   </si>
   <si>
-    <t>74991832</t>
+    <t>8605601</t>
   </si>
   <si>
     <t>48003</t>
@@ -654,7 +645,7 @@
     <t>sigma non-opioid intracellular receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74997099</t>
+    <t>8610754</t>
   </si>
   <si>
     <t>5628288</t>
@@ -663,7 +654,7 @@
     <t>beta-3 adrenergic receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029426</t>
+    <t>8645236</t>
   </si>
   <si>
     <t>4618674</t>
@@ -672,7 +663,7 @@
     <t>mitogen-activated protein kinase 3 (homo sapiens)</t>
   </si>
   <si>
-    <t>74992414</t>
+    <t>8605990</t>
   </si>
   <si>
     <t>3149407</t>
@@ -681,7 +672,7 @@
     <t>type-2 angiotensin ii receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029448</t>
+    <t>8645255</t>
   </si>
   <si>
     <t>3103480</t>
@@ -690,7 +681,7 @@
     <t>caspase-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991943</t>
+    <t>8605673</t>
   </si>
   <si>
     <t>781426</t>
@@ -699,7 +690,7 @@
     <t>endothelin-1 receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991760</t>
+    <t>8605522</t>
   </si>
   <si>
     <t>4448384</t>
@@ -708,7 +699,7 @@
     <t>histamine h1 receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991791</t>
+    <t>8605557</t>
   </si>
   <si>
     <t>4298283</t>
@@ -717,7 +708,7 @@
     <t>5-hydroxytryptamine receptor 2b (homo sapiens)</t>
   </si>
   <si>
-    <t>74997076</t>
+    <t>8610728</t>
   </si>
   <si>
     <t>3007136</t>
@@ -726,7 +717,7 @@
     <t>tyrosine-protein kinase fyn (homo sapiens)</t>
   </si>
   <si>
-    <t>74992442</t>
+    <t>8606013</t>
   </si>
   <si>
     <t>213967</t>
@@ -735,16 +726,16 @@
     <t>alpha-1d adrenergic receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029399</t>
-  </si>
-  <si>
-    <t>2278411</t>
-  </si>
-  <si>
-    <t>cgmp-specific 3',5'-cyclic phosphodiesterase</t>
-  </si>
-  <si>
-    <t>74991912</t>
+    <t>8645211</t>
+  </si>
+  <si>
+    <t>1655876</t>
+  </si>
+  <si>
+    <t>cgmp-specific 3',5'-cyclic phosphodiesterase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605653</t>
   </si>
   <si>
     <t>3014218</t>
@@ -753,16 +744,16 @@
     <t>d(1a) dopamine receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029873</t>
-  </si>
-  <si>
-    <t>689150</t>
-  </si>
-  <si>
-    <t>c-c chemokine receptor type 2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029468</t>
+    <t>8645708</t>
+  </si>
+  <si>
+    <t>1697352</t>
+  </si>
+  <si>
+    <t>c-c chemokine receptor type 2</t>
+  </si>
+  <si>
+    <t>8645280</t>
   </si>
   <si>
     <t>2846257</t>
@@ -771,7 +762,7 @@
     <t>muscarinic acetylcholine receptor m4 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991843</t>
+    <t>8605609</t>
   </si>
   <si>
     <t>2846138</t>
@@ -780,7 +771,7 @@
     <t>muscarinic acetylcholine receptor m5 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991845</t>
+    <t>8605613</t>
   </si>
   <si>
     <t>402156</t>
@@ -789,10 +780,19 @@
     <t>carbonic anhydrase 9 (homo sapiens)</t>
   </si>
   <si>
-    <t>70224215</t>
-  </si>
-  <si>
-    <t>67324874</t>
+    <t>915029</t>
+  </si>
+  <si>
+    <t>3792988</t>
+  </si>
+  <si>
+    <t>426326</t>
+  </si>
+  <si>
+    <t>adrenergic receptor alpha(2a)</t>
+  </si>
+  <si>
+    <t>8645215</t>
   </si>
   <si>
     <t>4391402</t>
@@ -801,16 +801,7 @@
     <t>prostaglandin g/h synthase 1 (ovis aries)</t>
   </si>
   <si>
-    <t>67699615</t>
-  </si>
-  <si>
-    <t>219059</t>
-  </si>
-  <si>
-    <t>alpha-2a adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029404</t>
+    <t>1300613</t>
   </si>
   <si>
     <t>3382755</t>
@@ -819,7 +810,7 @@
     <t>b2 bradykinin receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029455</t>
+    <t>8645261</t>
   </si>
   <si>
     <t>184839</t>
@@ -828,7 +819,16 @@
     <t>neuropeptide y receptor type 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991866</t>
+    <t>8605628</t>
+  </si>
+  <si>
+    <t>2637506</t>
+  </si>
+  <si>
+    <t>solute carrier organic anion transporter family member 1b1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>5643897</t>
   </si>
   <si>
     <t>4525748</t>
@@ -837,7 +837,7 @@
     <t>thromboxane-a synthase (homo sapiens)</t>
   </si>
   <si>
-    <t>74997118</t>
+    <t>8610767</t>
   </si>
   <si>
     <t>207158</t>
@@ -846,16 +846,7 @@
     <t>solute carrier organic anion transporter family member 1b3 (homo sapiens)</t>
   </si>
   <si>
-    <t>72135859</t>
-  </si>
-  <si>
-    <t>665650</t>
-  </si>
-  <si>
-    <t>solute carrier organic anion transporter family member 1b1</t>
-  </si>
-  <si>
-    <t>72186613</t>
+    <t>5593883</t>
   </si>
   <si>
     <t>4293397</t>
@@ -864,7 +855,7 @@
     <t>substance-k receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74997108</t>
+    <t>8610762</t>
   </si>
   <si>
     <t>339939</t>
@@ -873,7 +864,7 @@
     <t>nitric oxide synthase, inducible (mus musculus)</t>
   </si>
   <si>
-    <t>74991876</t>
+    <t>8605637</t>
   </si>
   <si>
     <t>3097920</t>
@@ -882,7 +873,7 @@
     <t>c-x-c chemokine receptor type 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029480</t>
+    <t>8645297</t>
   </si>
   <si>
     <t>2996736</t>
@@ -891,16 +882,7 @@
     <t>histamine h2 receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991795</t>
-  </si>
-  <si>
-    <t>5328</t>
-  </si>
-  <si>
-    <t>alpha-2c adrenergic receptor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75029417</t>
+    <t>8605560</t>
   </si>
   <si>
     <t>4507655</t>
@@ -909,7 +891,7 @@
     <t>vasopressin v1a receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74997136</t>
+    <t>8610781</t>
   </si>
   <si>
     <t>183372</t>
@@ -918,7 +900,7 @@
     <t>neuropeptide y receptor type 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991871</t>
+    <t>8605631</t>
   </si>
   <si>
     <t>5629404</t>
@@ -927,7 +909,28 @@
     <t>cholecystokinin receptor type a (homo sapiens)</t>
   </si>
   <si>
-    <t>75029482</t>
+    <t>8645300</t>
+  </si>
+  <si>
+    <t>670434</t>
+  </si>
+  <si>
+    <t>alpha-2c adrenergic receptor</t>
+  </si>
+  <si>
+    <t>8645226</t>
+  </si>
+  <si>
+    <t>4751867</t>
+  </si>
+  <si>
+    <t>carbonate dehydratase</t>
+  </si>
+  <si>
+    <t>3793113</t>
+  </si>
+  <si>
+    <t>3793112</t>
   </si>
   <si>
     <t>2677696</t>
@@ -936,19 +939,7 @@
     <t>melanocortin receptor 3 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991826</t>
-  </si>
-  <si>
-    <t>4751867</t>
-  </si>
-  <si>
-    <t>carbonate dehydratase</t>
-  </si>
-  <si>
-    <t>70224451</t>
-  </si>
-  <si>
-    <t>70224454</t>
+    <t>8605591</t>
   </si>
   <si>
     <t>1655732</t>
@@ -957,7 +948,7 @@
     <t>cysteinyl leukotriene receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991819</t>
+    <t>8605583</t>
   </si>
   <si>
     <t>4042268</t>
@@ -966,7 +957,7 @@
     <t>cytochrome p450 2e1 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029867</t>
+    <t>8645700</t>
   </si>
   <si>
     <t>5628678</t>
@@ -975,10 +966,19 @@
     <t>carbonic anhydrase 12 (homo sapiens)</t>
   </si>
   <si>
-    <t>70485689</t>
-  </si>
-  <si>
-    <t>67672686</t>
+    <t>1250276</t>
+  </si>
+  <si>
+    <t>4034422</t>
+  </si>
+  <si>
+    <t>4404164</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine receptor 1b (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>8610724</t>
   </si>
   <si>
     <t>346615</t>
@@ -987,7 +987,7 @@
     <t>aldose reductase (rattus norvegicus)</t>
   </si>
   <si>
-    <t>75029445</t>
+    <t>8645253</t>
   </si>
   <si>
     <t>2822774</t>
@@ -996,16 +996,7 @@
     <t>nitric oxide synthase, brain (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74991874</t>
-  </si>
-  <si>
-    <t>4404164</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptamine receptor 1b (rattus norvegicus)</t>
-  </si>
-  <si>
-    <t>74997069</t>
+    <t>8605634</t>
   </si>
   <si>
     <t>813522</t>
@@ -1014,7 +1005,7 @@
     <t>alpha-2b adrenergic receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029410</t>
+    <t>8645223</t>
   </si>
   <si>
     <t>4659700</t>
@@ -1023,7 +1014,7 @@
     <t>melanocortin receptor 5 (homo sapiens)</t>
   </si>
   <si>
-    <t>74991830</t>
+    <t>8605598</t>
   </si>
   <si>
     <t>5806196</t>
@@ -1032,7 +1023,7 @@
     <t>4-(4-dimethylaminostyryl)-1-methylpyridinium</t>
   </si>
   <si>
-    <t>90480914</t>
+    <t>17293889</t>
   </si>
   <si>
     <t>3781438</t>
@@ -1041,7 +1032,7 @@
     <t>4-(p-dimethylaminostyryl)-1-methylpyridinium p-toluenesulfonate</t>
   </si>
   <si>
-    <t>90480915</t>
+    <t>17293895</t>
   </si>
   <si>
     <t>1586586</t>
@@ -1050,7 +1041,7 @@
     <t>1-methyl-4-(4-dimethylaminostyryl)pyridinium</t>
   </si>
   <si>
-    <t>90480913</t>
+    <t>17293886</t>
   </si>
   <si>
     <t>4675268</t>
@@ -1059,7 +1050,7 @@
     <t>androgen receptor (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74997114</t>
+    <t>8610765</t>
   </si>
   <si>
     <t>4299255</t>
@@ -1068,7 +1059,7 @@
     <t>angiotensin-converting enzyme (oryctolagus cuniculus)</t>
   </si>
   <si>
-    <t>74991941</t>
+    <t>8605671</t>
   </si>
   <si>
     <t>4474737</t>
@@ -1077,10 +1068,10 @@
     <t>carbonic anhydrase 4 (bos taurus)</t>
   </si>
   <si>
-    <t>67316939</t>
-  </si>
-  <si>
-    <t>73169610</t>
+    <t>6745338</t>
+  </si>
+  <si>
+    <t>915016</t>
   </si>
   <si>
     <t>1697536</t>
@@ -1089,7 +1080,16 @@
     <t>carbonic anhydrase 9</t>
   </si>
   <si>
-    <t>67324873</t>
+    <t>915028</t>
+  </si>
+  <si>
+    <t>322382</t>
+  </si>
+  <si>
+    <t>cd45 antigens</t>
+  </si>
+  <si>
+    <t>8606025</t>
   </si>
   <si>
     <t>3108923</t>
@@ -1098,7 +1098,7 @@
     <t>c-x-c chemokine receptor type 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029478</t>
+    <t>8645293</t>
   </si>
   <si>
     <t>4365794</t>
@@ -1107,7 +1107,7 @@
     <t>platelet-activating factor receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>74991914</t>
+    <t>8605655</t>
   </si>
   <si>
     <t>775973</t>
@@ -1116,7 +1116,7 @@
     <t>cathepsin g (homo sapiens)</t>
   </si>
   <si>
-    <t>74991945</t>
+    <t>8605675</t>
   </si>
   <si>
     <t>465125</t>
@@ -1125,7 +1125,7 @@
     <t>cytochrome p450 2a3 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>75029496</t>
+    <t>8645319</t>
   </si>
   <si>
     <t>153667</t>
@@ -1134,16 +1134,7 @@
     <t>c-c chemokine receptor type 4 (homo sapiens)</t>
   </si>
   <si>
-    <t>75029471</t>
-  </si>
-  <si>
-    <t>527038</t>
-  </si>
-  <si>
-    <t>receptor-type tyrosine-protein phosphatase c (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74992460</t>
+    <t>8645284</t>
   </si>
   <si>
     <t>463127</t>
@@ -1152,7 +1143,7 @@
     <t>3-hydroxy-3-methylglutaryl-coenzyme a reductase (homo sapiens)</t>
   </si>
   <si>
-    <t>74991800</t>
+    <t>8605563</t>
   </si>
   <si>
     <t>4357106</t>
@@ -1161,7 +1152,7 @@
     <t>5-hydroxytryptamine receptor 4 (cavia porcellus)</t>
   </si>
   <si>
-    <t>74997086</t>
+    <t>8610740</t>
   </si>
   <si>
     <t>3103941</t>
@@ -1170,7 +1161,7 @@
     <t>vasoactive intestinal polypeptide receptor 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>74997129</t>
+    <t>8610775</t>
   </si>
   <si>
     <t>171141</t>
@@ -1179,7 +1170,7 @@
     <t>serine/threonine-protein phosphatase 2b catalytic subunit alpha isoform (homo sapiens)</t>
   </si>
   <si>
-    <t>74992436</t>
+    <t>8606008</t>
   </si>
   <si>
     <t>4501263</t>
@@ -1188,7 +1179,7 @@
     <t>arachidonate 15-lipoxygenase (oryctolagus cuniculus)</t>
   </si>
   <si>
-    <t>74991823</t>
+    <t>8605587</t>
   </si>
   <si>
     <t>4653205</t>
@@ -1197,7 +1188,7 @@
     <t>calcitonin receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>75029457</t>
+    <t>8645264</t>
   </si>
   <si>
     <t>4422922</t>
@@ -1206,7 +1197,7 @@
     <t>insulin receptor (rattus norvegicus)</t>
   </si>
   <si>
-    <t>74991810</t>
+    <t>8605577</t>
   </si>
   <si>
     <t>4279490</t>
@@ -1215,7 +1206,19 @@
     <t>leukotriene c4 synthase (cavia porcellus)</t>
   </si>
   <si>
-    <t>74991816</t>
+    <t>8605579</t>
+  </si>
+  <si>
+    <t>2819880</t>
+  </si>
+  <si>
+    <t>carbonic anhydrase 7 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>1336922</t>
+  </si>
+  <si>
+    <t>3737858</t>
   </si>
   <si>
     <t>3009745</t>
@@ -1224,22 +1227,10 @@
     <t>prostaglandin g/h synthase 2 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>78039022</t>
-  </si>
-  <si>
-    <t>69015010</t>
-  </si>
-  <si>
-    <t>2819880</t>
-  </si>
-  <si>
-    <t>carbonic anhydrase 7 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>67782144</t>
-  </si>
-  <si>
-    <t>70178705</t>
+    <t>2591751</t>
+  </si>
+  <si>
+    <t>11617350</t>
   </si>
   <si>
     <t>4405380</t>
@@ -1248,10 +1239,10 @@
     <t>carbonic anhydrase 14 (homo sapiens)</t>
   </si>
   <si>
-    <t>67782143</t>
-  </si>
-  <si>
-    <t>71857823</t>
+    <t>1336914</t>
+  </si>
+  <si>
+    <t>5484667</t>
   </si>
   <si>
     <t>5487</t>
@@ -1260,10 +1251,10 @@
     <t>carbonic anhydrase 4 (homo sapiens)</t>
   </si>
   <si>
-    <t>67782147</t>
-  </si>
-  <si>
-    <t>71857910</t>
+    <t>1336930</t>
+  </si>
+  <si>
+    <t>5484753</t>
   </si>
   <si>
     <t>720586</t>
@@ -1272,10 +1263,10 @@
     <t>carbonic anhydrase 6 (homo sapiens)</t>
   </si>
   <si>
-    <t>71857873</t>
-  </si>
-  <si>
-    <t>67468150</t>
+    <t>5484712</t>
+  </si>
+  <si>
+    <t>1049732</t>
   </si>
   <si>
     <t>4659084</t>
@@ -1284,10 +1275,10 @@
     <t>carbonic anhydrase 5a, mitochondrial (homo sapiens)</t>
   </si>
   <si>
-    <t>71857893</t>
-  </si>
-  <si>
-    <t>67780346</t>
+    <t>5484738</t>
+  </si>
+  <si>
+    <t>1336928</t>
   </si>
   <si>
     <t>4652190</t>
@@ -1296,10 +1287,10 @@
     <t>carbonic anhydrase 5b, mitochondrial (homo sapiens)</t>
   </si>
   <si>
-    <t>71857882</t>
-  </si>
-  <si>
-    <t>67776889</t>
+    <t>1336927</t>
+  </si>
+  <si>
+    <t>5484724</t>
   </si>
   <si>
     <t>4584306</t>
@@ -1308,10 +1299,10 @@
     <t>carbonic anhydrase 3 (homo sapiens)</t>
   </si>
   <si>
-    <t>71857920</t>
-  </si>
-  <si>
-    <t>67786934</t>
+    <t>5484763</t>
+  </si>
+  <si>
+    <t>1336932</t>
   </si>
   <si>
     <t>2825171</t>
@@ -1320,10 +1311,10 @@
     <t>carbonic anhydrase 13 (homo sapiens)</t>
   </si>
   <si>
-    <t>71857836</t>
-  </si>
-  <si>
-    <t>71857840</t>
+    <t>5484673</t>
+  </si>
+  <si>
+    <t>5484676</t>
   </si>
   <si>
     <t>3237237</t>
@@ -1332,7 +1323,7 @@
     <t>carbonic anhydrase vi</t>
   </si>
   <si>
-    <t>67468149</t>
+    <t>1049731</t>
   </si>
   <si>
     <t>331788</t>
@@ -1341,7 +1332,7 @@
     <t>ras-related c3 botulinum toxin substrate 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>67466461</t>
+    <t>1078430</t>
   </si>
   <si>
     <t>stimulates</t>
@@ -1353,10 +1344,10 @@
     <t>carbonic anhydrase 13 (mus musculus)</t>
   </si>
   <si>
-    <t>76555300</t>
-  </si>
-  <si>
-    <t>67899445</t>
+    <t>1488636</t>
+  </si>
+  <si>
+    <t>10138209</t>
   </si>
   <si>
     <t>3384535</t>
@@ -1365,7 +1356,7 @@
     <t>valdecoxib</t>
   </si>
   <si>
-    <t>205815740</t>
+    <t>139621930</t>
   </si>
   <si>
     <t>is parent of</t>
@@ -1377,10 +1368,10 @@
     <t>carbonic anhydrase (candida albicans (strain sc5314 / atcc mya-2876))</t>
   </si>
   <si>
-    <t>68936251</t>
-  </si>
-  <si>
-    <t>68936223</t>
+    <t>2513414</t>
+  </si>
+  <si>
+    <t>2513385</t>
   </si>
   <si>
     <t>4319559</t>
@@ -1389,10 +1380,10 @@
     <t>carbonic anhydrase 15 (mus musculus)</t>
   </si>
   <si>
-    <t>76762899</t>
-  </si>
-  <si>
-    <t>67468034</t>
+    <t>1049667</t>
+  </si>
+  <si>
+    <t>10312279</t>
   </si>
   <si>
     <t>239157</t>
@@ -1401,10 +1392,10 @@
     <t>cytochrome c oxidase subunit 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>75848416</t>
-  </si>
-  <si>
-    <t>67748710</t>
+    <t>9366831</t>
+  </si>
+  <si>
+    <t>1324317</t>
   </si>
   <si>
     <t>4258139</t>
@@ -1413,10 +1404,10 @@
     <t>uncharacterized protein mb1315 (mycobacterium bovis (strain atcc baa-935 / af2122/97))</t>
   </si>
   <si>
-    <t>71857820</t>
-  </si>
-  <si>
-    <t>71857808</t>
+    <t>5484651</t>
+  </si>
+  <si>
+    <t>5484662</t>
   </si>
   <si>
     <t>4400320</t>
@@ -1425,10 +1416,10 @@
     <t>carbonic anhydrase (saccharomyces cerevisiae (strain atcc 204508 / s288c))</t>
   </si>
   <si>
-    <t>76748248</t>
-  </si>
-  <si>
-    <t>76748249</t>
+    <t>10298564</t>
+  </si>
+  <si>
+    <t>10298565</t>
   </si>
   <si>
     <t>4605618</t>
@@ -1437,10 +1428,10 @@
     <t>carbonic anhydrase (methanosarcina thermophila)</t>
   </si>
   <si>
-    <t>68098432</t>
-  </si>
-  <si>
-    <t>70097953</t>
+    <t>3669914</t>
+  </si>
+  <si>
+    <t>1685056</t>
   </si>
   <si>
     <t>4319817</t>
@@ -1449,10 +1440,10 @@
     <t>cytochrome c oxidase subunit 1 (ovis aries)</t>
   </si>
   <si>
-    <t>75848436</t>
-  </si>
-  <si>
-    <t>67739103</t>
+    <t>9366864</t>
+  </si>
+  <si>
+    <t>1324327</t>
   </si>
   <si>
     <t>4215824</t>
@@ -1461,10 +1452,10 @@
     <t>carbonic anhydrase 2 (mycobacterium tuberculosis (strain cdc 1551 / oshkosh))</t>
   </si>
   <si>
-    <t>71857752</t>
-  </si>
-  <si>
-    <t>71857731</t>
+    <t>5484573</t>
+  </si>
+  <si>
+    <t>5484598</t>
   </si>
   <si>
     <t>2449184</t>
@@ -1476,34 +1467,34 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>104611791</t>
+    <t>38253632</t>
   </si>
   <si>
     <t>is part of</t>
   </si>
   <si>
-    <t>2273946</t>
-  </si>
-  <si>
-    <t>msmp (homo sapiens)</t>
+    <t>5596153</t>
+  </si>
+  <si>
+    <t>pc-3</t>
+  </si>
+  <si>
+    <t>8094394</t>
+  </si>
+  <si>
+    <t>2961813</t>
+  </si>
+  <si>
+    <t>ca2 (homo sapiens)</t>
   </si>
   <si>
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>74515247</t>
-  </si>
-  <si>
-    <t>2961813</t>
-  </si>
-  <si>
-    <t>ca2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85936209</t>
-  </si>
-  <si>
-    <t>85936196</t>
+    <t>19753830</t>
+  </si>
+  <si>
+    <t>19753835</t>
   </si>
   <si>
     <t>1351957</t>
@@ -1512,7 +1503,7 @@
     <t>vegfa (homo sapiens)</t>
   </si>
   <si>
-    <t>83984760</t>
+    <t>17595074</t>
   </si>
   <si>
     <t>2791081</t>
@@ -1521,10 +1512,19 @@
     <t>ptgs2 (homo sapiens)</t>
   </si>
   <si>
-    <t>87417146</t>
-  </si>
-  <si>
-    <t>112006425</t>
+    <t>21289794</t>
+  </si>
+  <si>
+    <t>45837784</t>
+  </si>
+  <si>
+    <t>2791365</t>
+  </si>
+  <si>
+    <t>pgr (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8605669</t>
   </si>
   <si>
     <t>2786187</t>
@@ -1533,7 +1533,7 @@
     <t>fgf2 (homo sapiens)</t>
   </si>
   <si>
-    <t>84481564</t>
+    <t>18154155</t>
   </si>
   <si>
     <t>2830811</t>
@@ -1542,7 +1542,7 @@
     <t>slc22a2 (homo sapiens)</t>
   </si>
   <si>
-    <t>90480906</t>
+    <t>17293844</t>
   </si>
   <si>
     <t>2791467</t>
@@ -1551,7 +1551,7 @@
     <t>ptgs1 (homo sapiens)</t>
   </si>
   <si>
-    <t>112018822</t>
+    <t>45850398</t>
   </si>
   <si>
     <t>2962024</t>
@@ -1560,10 +1560,10 @@
     <t>ca3 (homo sapiens)</t>
   </si>
   <si>
-    <t>84304529</t>
-  </si>
-  <si>
-    <t>84304522</t>
+    <t>22451318</t>
+  </si>
+  <si>
+    <t>22451333</t>
   </si>
   <si>
     <t>1328744</t>
@@ -1572,7 +1572,7 @@
     <t>hla-dpa1 (homo sapiens)</t>
   </si>
   <si>
-    <t>86826181</t>
+    <t>20591486</t>
   </si>
   <si>
     <t>3016094</t>
@@ -1581,7 +1581,7 @@
     <t>hla-dma (homo sapiens)</t>
   </si>
   <si>
-    <t>87658266</t>
+    <t>21628480</t>
   </si>
   <si>
     <t>3015952</t>
@@ -1590,7 +1590,7 @@
     <t>hla-dmb (homo sapiens)</t>
   </si>
   <si>
-    <t>86151186</t>
+    <t>19988229</t>
   </si>
   <si>
     <t>5793253</t>
@@ -1602,7 +1602,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>83075994</t>
+    <t>16828516</t>
   </si>
   <si>
     <t>treats</t>
@@ -1614,7 +1614,7 @@
     <t>myocardial infarction</t>
   </si>
   <si>
-    <t>83076000</t>
+    <t>16828522</t>
   </si>
   <si>
     <t>indicates</t>
@@ -1626,7 +1626,16 @@
     <t>degenerative polyarthritis</t>
   </si>
   <si>
-    <t>83076009</t>
+    <t>16828531</t>
+  </si>
+  <si>
+    <t>3772078</t>
+  </si>
+  <si>
+    <t>hepatotoxicity</t>
+  </si>
+  <si>
+    <t>8730304</t>
   </si>
   <si>
     <t>5083291</t>
@@ -1635,7 +1644,7 @@
     <t>urticaria</t>
   </si>
   <si>
-    <t>83076027</t>
+    <t>16828549</t>
   </si>
   <si>
     <t>4042009</t>
@@ -1644,7 +1653,16 @@
     <t>toxic epidermal necrolysis</t>
   </si>
   <si>
-    <t>83076024</t>
+    <t>16828546</t>
+  </si>
+  <si>
+    <t>180506</t>
+  </si>
+  <si>
+    <t>visual impairment</t>
+  </si>
+  <si>
+    <t>16828569</t>
   </si>
   <si>
     <t>5158816</t>
@@ -1653,16 +1671,7 @@
     <t>stevens-johnson syndrome</t>
   </si>
   <si>
-    <t>83076020</t>
-  </si>
-  <si>
-    <t>180506</t>
-  </si>
-  <si>
-    <t>visual impairment</t>
-  </si>
-  <si>
-    <t>83076047</t>
+    <t>16828542</t>
   </si>
   <si>
     <t>3204847</t>
@@ -1671,7 +1680,7 @@
     <t>drug-induced stevens johnson syndrome</t>
   </si>
   <si>
-    <t>83076023</t>
+    <t>16828545</t>
   </si>
   <si>
     <t>1932384</t>
@@ -1680,7 +1689,7 @@
     <t>stevens-johnson syndrome toxic epidermal necrolysis spectrum</t>
   </si>
   <si>
-    <t>83076021</t>
+    <t>16828543</t>
   </si>
   <si>
     <t>1936620</t>
@@ -1689,16 +1698,7 @@
     <t>mycoplasma-induced stevens-johnson syndrome</t>
   </si>
   <si>
-    <t>83076022</t>
-  </si>
-  <si>
-    <t>3045767</t>
-  </si>
-  <si>
-    <t>toxic liver disease</t>
-  </si>
-  <si>
-    <t>75103102</t>
+    <t>16828544</t>
   </si>
   <si>
     <t>4819343</t>
@@ -1707,7 +1707,16 @@
     <t>vision disorders</t>
   </si>
   <si>
-    <t>83076046</t>
+    <t>16828568</t>
+  </si>
+  <si>
+    <t>4040728</t>
+  </si>
+  <si>
+    <t>conjunctivitis</t>
+  </si>
+  <si>
+    <t>16828519</t>
   </si>
   <si>
     <t>3741306</t>
@@ -1716,16 +1725,7 @@
     <t>metamorphopsia</t>
   </si>
   <si>
-    <t>83076043</t>
-  </si>
-  <si>
-    <t>4040728</t>
-  </si>
-  <si>
-    <t>conjunctivitis</t>
-  </si>
-  <si>
-    <t>83075997</t>
+    <t>16828565</t>
   </si>
   <si>
     <t>617572</t>
@@ -1734,7 +1734,7 @@
     <t>hemeralopia</t>
   </si>
   <si>
-    <t>83076044</t>
+    <t>16828566</t>
   </si>
   <si>
     <t>3773353</t>
@@ -1743,7 +1743,7 @@
     <t>micropsia</t>
   </si>
   <si>
-    <t>83076045</t>
+    <t>16828567</t>
   </si>
   <si>
     <t>3769801</t>
@@ -1752,7 +1752,7 @@
     <t>macropsia</t>
   </si>
   <si>
-    <t>83076048</t>
+    <t>16828570</t>
   </si>
   <si>
     <t>995115</t>
@@ -1761,7 +1761,7 @@
     <t>vision disability</t>
   </si>
   <si>
-    <t>83076042</t>
+    <t>16828564</t>
   </si>
   <si>
     <t>2462663</t>
@@ -1770,10 +1770,10 @@
     <t>heart problem</t>
   </si>
   <si>
-    <t>75848483</t>
-  </si>
-  <si>
-    <t>75848489</t>
+    <t>9366936</t>
+  </si>
+  <si>
+    <t>9366933</t>
   </si>
   <si>
     <t>379213</t>
@@ -1782,7 +1782,31 @@
     <t>osteoarthrosis deformans</t>
   </si>
   <si>
-    <t>83076008</t>
+    <t>16828530</t>
+  </si>
+  <si>
+    <t>6433274</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>9366884</t>
+  </si>
+  <si>
+    <t>5354840</t>
+  </si>
+  <si>
+    <t>6432938</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>10009922</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1965,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.662878036499023</v>
+        <v>6.6628618240356445</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -1971,18 +1995,18 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.538011074066162</v>
+        <v>6.537967205047607</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -2006,12 +2030,12 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.497029781341553</v>
+        <v>6.496981620788574</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -2041,12 +2065,12 @@
         <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.466092586517334</v>
+        <v>6.466014385223389</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2070,12 +2094,12 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.453624248504639</v>
+        <v>6.453570365905762</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -2099,12 +2123,12 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.348684310913086</v>
+        <v>6.349704742431641</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -2133,7 +2157,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.294576644897461</v>
+        <v>6.2945380210876465</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -2157,12 +2181,12 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.219020843505859</v>
+        <v>6.218791484832764</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -2186,12 +2210,12 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.209508419036865</v>
+        <v>6.209414482116699</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -2215,12 +2239,12 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.183305263519287</v>
+        <v>6.1831560134887695</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -2244,12 +2268,12 @@
         <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.176929950714111</v>
+        <v>6.176828861236572</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -2273,12 +2297,12 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.168040752410889</v>
+        <v>6.168092250823975</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -2302,24 +2326,24 @@
         <v>73</v>
       </c>
       <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>75</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>76</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>77</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.151040077209473</v>
+        <v>6.150986671447754</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -2343,12 +2367,12 @@
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.1272101402282715</v>
+        <v>6.127096652984619</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
@@ -2372,12 +2396,12 @@
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.110269546508789</v>
+        <v>6.110092639923096</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -2401,7 +2425,7 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -2430,12 +2454,12 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.070148944854736</v>
+        <v>6.070019245147705</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
@@ -2459,12 +2483,12 @@
         <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.046358585357666</v>
+        <v>6.046290397644043</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
@@ -2488,12 +2512,12 @@
         <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.046221733093262</v>
+        <v>6.046153545379639</v>
       </c>
       <c r="B21" t="s">
         <v>96</v>
@@ -2517,12 +2541,12 @@
         <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.044990062713623</v>
+        <v>6.044853210449219</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
@@ -2546,12 +2570,12 @@
         <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.036898136138916</v>
+        <v>6.043961048126221</v>
       </c>
       <c r="B23" t="s">
         <v>102</v>
@@ -2575,24 +2599,36 @@
         <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
         <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.030569553375244</v>
+        <v>6.042516231536865</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -2607,21 +2643,21 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.027369976043701</v>
+        <v>6.036688804626465</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -2636,21 +2672,27 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.025223731994629</v>
+        <v>6.030498504638672</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -2665,21 +2707,21 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.011750221252441</v>
+        <v>6.027155876159668</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -2694,27 +2736,21 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K27" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.00885534286499</v>
+        <v>6.024721622467041</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2729,21 +2765,21 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.006166458129883</v>
+        <v>6.008706569671631</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -2758,21 +2794,21 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.9888153076171875</v>
+        <v>6.000054359436035</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -2787,21 +2823,21 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.968378067016602</v>
+        <v>5.98858118057251</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -2816,21 +2852,21 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.965507507324219</v>
+        <v>5.968214511871338</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
@@ -2845,21 +2881,21 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.964519023895264</v>
+        <v>5.96542501449585</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
@@ -2874,10 +2910,10 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -2885,10 +2921,10 @@
         <v>5.961622714996338</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -2903,21 +2939,21 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.961373805999756</v>
+        <v>5.961207389831543</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
@@ -2932,21 +2968,21 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.946930885314941</v>
+        <v>5.940703392028809</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -2961,21 +2997,21 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.940790176391602</v>
+        <v>5.939656734466553</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -2990,21 +3026,21 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.939831256866455</v>
+        <v>5.93930721282959</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -3019,21 +3055,21 @@
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.939394474029541</v>
+        <v>5.936765193939209</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -3048,21 +3084,21 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.936940670013428</v>
+        <v>5.926985263824463</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -3077,21 +3113,21 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.917715549468994</v>
+        <v>5.919914245605469</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -3106,21 +3142,21 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.912819862365723</v>
+        <v>5.917531967163086</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -3135,21 +3171,21 @@
         <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.911610126495361</v>
+        <v>5.912540912628174</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -3164,21 +3200,21 @@
         <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.909555912017822</v>
+        <v>5.911330699920654</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
@@ -3193,27 +3229,21 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
-      </c>
-      <c r="J44" t="s">
-        <v>170</v>
-      </c>
-      <c r="K44" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.909275054931641</v>
+        <v>5.9094624519348145</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -3228,91 +3258,85 @@
         <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K45" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" t="s">
-        <v>175</v>
-      </c>
-      <c r="M45" t="s">
-        <v>38</v>
-      </c>
-      <c r="N45" t="s">
-        <v>176</v>
-      </c>
-      <c r="O45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.906173229217529</v>
+        <v>5.905984878540039</v>
       </c>
       <c r="B46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" t="s">
         <v>177</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
         <v>178</v>
       </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s">
-        <v>179</v>
-      </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.863694667816162</v>
+        <v>5.891788482666016</v>
       </c>
       <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
         <v>180</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
         <v>181</v>
       </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s">
         <v>182</v>
       </c>
-      <c r="I47" t="s">
-        <v>38</v>
+      <c r="K47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.860876560211182</v>
+        <v>5.868453502655029</v>
       </c>
       <c r="B48" t="s">
         <v>183</v>
@@ -3336,12 +3360,12 @@
         <v>185</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.851884841918945</v>
+        <v>5.863382339477539</v>
       </c>
       <c r="B49" t="s">
         <v>186</v>
@@ -3365,12 +3389,12 @@
         <v>188</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.83952522277832</v>
+        <v>5.851563930511475</v>
       </c>
       <c r="B50" t="s">
         <v>189</v>
@@ -3394,12 +3418,12 @@
         <v>191</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.831645965576172</v>
+        <v>5.84007453918457</v>
       </c>
       <c r="B51" t="s">
         <v>192</v>
@@ -3423,12 +3447,12 @@
         <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.824987888336182</v>
+        <v>5.839305400848389</v>
       </c>
       <c r="B52" t="s">
         <v>195</v>
@@ -3452,12 +3476,12 @@
         <v>197</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.8207597732543945</v>
+        <v>5.79667854309082</v>
       </c>
       <c r="B53" t="s">
         <v>198</v>
@@ -3481,12 +3505,12 @@
         <v>200</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.796799659729004</v>
+        <v>5.789210319519043</v>
       </c>
       <c r="B54" t="s">
         <v>201</v>
@@ -3510,12 +3534,12 @@
         <v>203</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.789333820343018</v>
+        <v>5.7814860343933105</v>
       </c>
       <c r="B55" t="s">
         <v>204</v>
@@ -3539,12 +3563,12 @@
         <v>206</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.781360149383545</v>
+        <v>5.770023345947266</v>
       </c>
       <c r="B56" t="s">
         <v>207</v>
@@ -3568,12 +3592,12 @@
         <v>209</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.7702813148498535</v>
+        <v>5.766263961791992</v>
       </c>
       <c r="B57" t="s">
         <v>210</v>
@@ -3597,12 +3621,12 @@
         <v>212</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.766524314880371</v>
+        <v>5.760629653930664</v>
       </c>
       <c r="B58" t="s">
         <v>213</v>
@@ -3626,12 +3650,12 @@
         <v>215</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.761025428771973</v>
+        <v>5.755321979522705</v>
       </c>
       <c r="B59" t="s">
         <v>216</v>
@@ -3655,12 +3679,12 @@
         <v>218</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.755589008331299</v>
+        <v>5.753582954406738</v>
       </c>
       <c r="B60" t="s">
         <v>219</v>
@@ -3684,12 +3708,12 @@
         <v>221</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.753850936889648</v>
+        <v>5.736774921417236</v>
       </c>
       <c r="B61" t="s">
         <v>222</v>
@@ -3713,12 +3737,12 @@
         <v>224</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.737053394317627</v>
+        <v>5.72218132019043</v>
       </c>
       <c r="B62" t="s">
         <v>225</v>
@@ -3742,12 +3766,12 @@
         <v>227</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.722613334655762</v>
+        <v>5.716525077819824</v>
       </c>
       <c r="B63" t="s">
         <v>228</v>
@@ -3771,12 +3795,12 @@
         <v>230</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.7168169021606445</v>
+        <v>5.713742256164551</v>
       </c>
       <c r="B64" t="s">
         <v>231</v>
@@ -3800,12 +3824,12 @@
         <v>233</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.7141828536987305</v>
+        <v>5.710202217102051</v>
       </c>
       <c r="B65" t="s">
         <v>234</v>
@@ -3829,12 +3853,12 @@
         <v>236</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.710498332977295</v>
+        <v>5.701977729797363</v>
       </c>
       <c r="B66" t="s">
         <v>237</v>
@@ -3858,12 +3882,12 @@
         <v>239</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.6901960372924805</v>
+        <v>5.6837897300720215</v>
       </c>
       <c r="B67" t="s">
         <v>240</v>
@@ -3887,12 +3911,12 @@
         <v>242</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.684261798858643</v>
+        <v>5.672305583953857</v>
       </c>
       <c r="B68" t="s">
         <v>243</v>
@@ -3916,12 +3940,12 @@
         <v>245</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.6837897300720215</v>
+        <v>5.666611671447754</v>
       </c>
       <c r="B69" t="s">
         <v>246</v>
@@ -3945,12 +3969,12 @@
         <v>248</v>
       </c>
       <c r="I69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.667102336883545</v>
+        <v>5.658178329467773</v>
       </c>
       <c r="B70" t="s">
         <v>249</v>
@@ -3974,12 +3998,12 @@
         <v>251</v>
       </c>
       <c r="I70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.658679008483887</v>
+        <v>5.656002521514893</v>
       </c>
       <c r="B71" t="s">
         <v>252</v>
@@ -4003,18 +4027,24 @@
         <v>254</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="J71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K71" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.656505584716797</v>
+        <v>5.64340353012085</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -4029,21 +4059,15 @@
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I72" t="s">
-        <v>74</v>
-      </c>
-      <c r="J72" t="s">
-        <v>258</v>
-      </c>
-      <c r="K72" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.625235080718994</v>
+        <v>5.624875068664551</v>
       </c>
       <c r="B73" t="s">
         <v>259</v>
@@ -4067,12 +4091,12 @@
         <v>261</v>
       </c>
       <c r="I73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.621980667114258</v>
+        <v>5.6192498207092285</v>
       </c>
       <c r="B74" t="s">
         <v>262</v>
@@ -4096,12 +4120,12 @@
         <v>264</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.61943244934082</v>
+        <v>5.6153974533081055</v>
       </c>
       <c r="B75" t="s">
         <v>265</v>
@@ -4125,12 +4149,12 @@
         <v>267</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.6157660484313965</v>
+        <v>5.595220565795898</v>
       </c>
       <c r="B76" t="s">
         <v>268</v>
@@ -4154,12 +4178,12 @@
         <v>270</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5.592315673828125</v>
+        <v>5.591926574707031</v>
       </c>
       <c r="B77" t="s">
         <v>271</v>
@@ -4183,12 +4207,12 @@
         <v>273</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5.591732025146484</v>
+        <v>5.5915374755859375</v>
       </c>
       <c r="B78" t="s">
         <v>274</v>
@@ -4212,12 +4236,12 @@
         <v>276</v>
       </c>
       <c r="I78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5.579497814178467</v>
+        <v>5.548819065093994</v>
       </c>
       <c r="B79" t="s">
         <v>277</v>
@@ -4241,12 +4265,12 @@
         <v>279</v>
       </c>
       <c r="I79" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5.549248695373535</v>
+        <v>5.548819065093994</v>
       </c>
       <c r="B80" t="s">
         <v>280</v>
@@ -4270,12 +4294,12 @@
         <v>282</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.548819065093994</v>
+        <v>5.538385391235352</v>
       </c>
       <c r="B81" t="s">
         <v>283</v>
@@ -4299,12 +4323,12 @@
         <v>285</v>
       </c>
       <c r="I81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5.5390448570251465</v>
+        <v>5.536621570587158</v>
       </c>
       <c r="B82" t="s">
         <v>286</v>
@@ -4328,12 +4352,12 @@
         <v>288</v>
       </c>
       <c r="I82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.536842346191406</v>
+        <v>5.531063556671143</v>
       </c>
       <c r="B83" t="s">
         <v>289</v>
@@ -4357,12 +4381,12 @@
         <v>291</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.536621570587158</v>
+        <v>5.524526119232178</v>
       </c>
       <c r="B84" t="s">
         <v>292</v>
@@ -4386,12 +4410,12 @@
         <v>294</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.531510829925537</v>
+        <v>5.520647048950195</v>
       </c>
       <c r="B85" t="s">
         <v>295</v>
@@ -4415,12 +4439,12 @@
         <v>297</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.524980068206787</v>
+        <v>5.520188808441162</v>
       </c>
       <c r="B86" t="s">
         <v>298</v>
@@ -4444,12 +4468,12 @@
         <v>300</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5.5211052894592285</v>
+        <v>5.519499778747559</v>
       </c>
       <c r="B87" t="s">
         <v>301</v>
@@ -4473,18 +4497,24 @@
         <v>303</v>
       </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="J87" t="s">
+        <v>304</v>
+      </c>
+      <c r="K87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.5197296142578125</v>
+        <v>5.519269943237305</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
@@ -4499,21 +4529,21 @@
         <v>27</v>
       </c>
       <c r="H88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.519499778747559</v>
+        <v>5.516271114349365</v>
       </c>
       <c r="B89" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -4528,21 +4558,15 @@
         <v>27</v>
       </c>
       <c r="H89" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I89" t="s">
-        <v>74</v>
-      </c>
-      <c r="J89" t="s">
-        <v>310</v>
-      </c>
-      <c r="K89" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.516733646392822</v>
+        <v>5.508799076080322</v>
       </c>
       <c r="B90" t="s">
         <v>311</v>
@@ -4566,12 +4590,12 @@
         <v>313</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.509034633636475</v>
+        <v>5.505963325500488</v>
       </c>
       <c r="B91" t="s">
         <v>314</v>
@@ -4595,18 +4619,24 @@
         <v>316</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="J91" t="s">
+        <v>317</v>
+      </c>
+      <c r="K91" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5.506200313568115</v>
+        <v>5.505726337432861</v>
       </c>
       <c r="B92" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C92" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D92" t="s">
         <v>27</v>
@@ -4621,16 +4651,10 @@
         <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I92" t="s">
-        <v>74</v>
-      </c>
-      <c r="J92" t="s">
-        <v>320</v>
-      </c>
-      <c r="K92" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93">
@@ -4659,12 +4683,12 @@
         <v>323</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5.497102737426758</v>
+        <v>5.496860504150391</v>
       </c>
       <c r="B94" t="s">
         <v>324</v>
@@ -4688,12 +4712,12 @@
         <v>326</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.494676113128662</v>
+        <v>5.48308801651001</v>
       </c>
       <c r="B95" t="s">
         <v>327</v>
@@ -4717,12 +4741,12 @@
         <v>329</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.483587265014648</v>
+        <v>5.48308801651001</v>
       </c>
       <c r="B96" t="s">
         <v>330</v>
@@ -4746,12 +4770,12 @@
         <v>332</v>
       </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.483587265014648</v>
+        <v>5.48108434677124</v>
       </c>
       <c r="B97" t="s">
         <v>333</v>
@@ -4775,12 +4799,12 @@
         <v>335</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.482087135314941</v>
+        <v>5.48108434677124</v>
       </c>
       <c r="B98" t="s">
         <v>336</v>
@@ -4804,12 +4828,12 @@
         <v>338</v>
       </c>
       <c r="I98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.482087135314941</v>
+        <v>5.480833053588867</v>
       </c>
       <c r="B99" t="s">
         <v>339</v>
@@ -4833,12 +4857,12 @@
         <v>341</v>
       </c>
       <c r="I99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.481836795806885</v>
+        <v>5.480330467224121</v>
       </c>
       <c r="B100" t="s">
         <v>342</v>
@@ -4862,12 +4886,12 @@
         <v>344</v>
       </c>
       <c r="I100" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5.480330467224121</v>
+        <v>5.47348690032959</v>
       </c>
       <c r="B101" t="s">
         <v>345</v>
@@ -4891,12 +4915,12 @@
         <v>347</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5.474507808685303</v>
+        <v>5.463407516479492</v>
       </c>
       <c r="B102" t="s">
         <v>348</v>
@@ -4920,18 +4944,24 @@
         <v>350</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="J102" t="s">
+        <v>351</v>
+      </c>
+      <c r="K102" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5.464191436767578</v>
+        <v>5.451479434967041</v>
       </c>
       <c r="B103" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C103" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
@@ -4946,21 +4976,15 @@
         <v>27</v>
       </c>
       <c r="H103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I103" t="s">
-        <v>76</v>
-      </c>
-      <c r="J103" t="s">
-        <v>354</v>
-      </c>
-      <c r="K103" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5.451479434967041</v>
+        <v>5.450672626495361</v>
       </c>
       <c r="B104" t="s">
         <v>355</v>
@@ -4984,12 +5008,12 @@
         <v>357</v>
       </c>
       <c r="I104" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5.4512104988098145</v>
+        <v>5.450403213500977</v>
       </c>
       <c r="B105" t="s">
         <v>358</v>
@@ -5013,12 +5037,12 @@
         <v>360</v>
       </c>
       <c r="I105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.426307678222656</v>
+        <v>5.425452709197998</v>
       </c>
       <c r="B106" t="s">
         <v>361</v>
@@ -5042,7 +5066,7 @@
         <v>363</v>
       </c>
       <c r="I106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107">
@@ -5071,12 +5095,12 @@
         <v>366</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.403806686401367</v>
+        <v>5.4032063484191895</v>
       </c>
       <c r="B108" t="s">
         <v>367</v>
@@ -5100,12 +5124,12 @@
         <v>369</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5.396548271179199</v>
+        <v>5.395937442779541</v>
       </c>
       <c r="B109" t="s">
         <v>370</v>
@@ -5129,12 +5153,12 @@
         <v>372</v>
       </c>
       <c r="I109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.391332149505615</v>
+        <v>5.362293720245361</v>
       </c>
       <c r="B110" t="s">
         <v>373</v>
@@ -5158,12 +5182,12 @@
         <v>375</v>
       </c>
       <c r="I110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5.362623691558838</v>
+        <v>5.351941108703613</v>
       </c>
       <c r="B111" t="s">
         <v>376</v>
@@ -5187,12 +5211,12 @@
         <v>378</v>
       </c>
       <c r="I111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5.352279186248779</v>
+        <v>5.278067111968994</v>
       </c>
       <c r="B112" t="s">
         <v>379</v>
@@ -5216,12 +5240,12 @@
         <v>381</v>
       </c>
       <c r="I112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5.278867721557617</v>
+        <v>5.261322498321533</v>
       </c>
       <c r="B113" t="s">
         <v>382</v>
@@ -5245,12 +5269,12 @@
         <v>384</v>
       </c>
       <c r="I113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.2617387771606445</v>
+        <v>5.251638412475586</v>
       </c>
       <c r="B114" t="s">
         <v>385</v>
@@ -5274,12 +5298,12 @@
         <v>387</v>
       </c>
       <c r="I114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.25248908996582</v>
+        <v>5.235149383544922</v>
       </c>
       <c r="B115" t="s">
         <v>388</v>
@@ -5303,12 +5327,12 @@
         <v>390</v>
       </c>
       <c r="I115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.236032962799072</v>
+        <v>5.203984260559082</v>
       </c>
       <c r="B116" t="s">
         <v>391</v>
@@ -5332,12 +5356,12 @@
         <v>393</v>
       </c>
       <c r="I116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5.2049336433410645</v>
+        <v>5.172967433929443</v>
       </c>
       <c r="B117" t="s">
         <v>394</v>
@@ -5361,12 +5385,12 @@
         <v>396</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.172967433929443</v>
+        <v>5.132339954376221</v>
       </c>
       <c r="B118" t="s">
         <v>397</v>
@@ -5390,18 +5414,24 @@
         <v>399</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="J118" t="s">
+        <v>400</v>
+      </c>
+      <c r="K118" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.132899761199951</v>
+        <v>5.131779193878174</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
@@ -5416,27 +5446,27 @@
         <v>27</v>
       </c>
       <c r="H119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I119" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J119" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K119" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5.132899761199951</v>
+        <v>5.122133731842041</v>
       </c>
       <c r="B120" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D120" t="s">
         <v>27</v>
@@ -5451,27 +5481,27 @@
         <v>27</v>
       </c>
       <c r="H120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J120" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K120" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5.123280048370361</v>
+        <v>5.0979509353637695</v>
       </c>
       <c r="B121" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C121" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
@@ -5486,27 +5516,27 @@
         <v>27</v>
       </c>
       <c r="H121" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J121" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K121" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.100370407104492</v>
+        <v>4.967313766479492</v>
       </c>
       <c r="B122" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C122" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
@@ -5521,27 +5551,27 @@
         <v>27</v>
       </c>
       <c r="H122" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I122" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J122" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K122" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.968132495880127</v>
+        <v>4.962369441986084</v>
       </c>
       <c r="B123" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D123" t="s">
         <v>27</v>
@@ -5556,27 +5586,27 @@
         <v>27</v>
       </c>
       <c r="H123" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I123" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J123" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.963197231292725</v>
+        <v>4.930566787719727</v>
       </c>
       <c r="B124" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C124" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
@@ -5591,27 +5621,27 @@
         <v>27</v>
       </c>
       <c r="H124" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I124" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J124" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K124" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4.931457996368408</v>
+        <v>4.852632522583008</v>
       </c>
       <c r="B125" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C125" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D125" t="s">
         <v>27</v>
@@ -5626,27 +5656,27 @@
         <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I125" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.853698253631592</v>
+        <v>4.8159098625183105</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C126" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D126" t="s">
         <v>27</v>
@@ -5661,27 +5691,27 @@
         <v>27</v>
       </c>
       <c r="H126" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I126" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J126" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.8135809898376465</v>
+        <v>4.7575860023498535</v>
       </c>
       <c r="B127" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D127" t="s">
         <v>27</v>
@@ -5696,21 +5726,15 @@
         <v>27</v>
       </c>
       <c r="H127" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I127" t="s">
-        <v>74</v>
-      </c>
-      <c r="J127" t="s">
-        <v>435</v>
-      </c>
-      <c r="K127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.7575860023498535</v>
+        <v>4.646158695220947</v>
       </c>
       <c r="B128" t="s">
         <v>436</v>
@@ -5734,18 +5758,18 @@
         <v>438</v>
       </c>
       <c r="I128" t="s">
-        <v>76</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.649578094482422</v>
+        <v>4.556905269622803</v>
       </c>
       <c r="B129" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C129" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D129" t="s">
         <v>27</v>
@@ -5760,21 +5784,27 @@
         <v>27</v>
       </c>
       <c r="H129" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I129" t="s">
-        <v>442</v>
+        <v>75</v>
+      </c>
+      <c r="J129" t="s">
+        <v>443</v>
+      </c>
+      <c r="K129" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.559008598327637</v>
+        <v>4.541891098022461</v>
       </c>
       <c r="B130" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C130" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
@@ -5789,27 +5819,21 @@
         <v>27</v>
       </c>
       <c r="H130" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I130" t="s">
-        <v>74</v>
-      </c>
-      <c r="J130" t="s">
-        <v>446</v>
-      </c>
-      <c r="K130" t="s">
-        <v>76</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.541891098022461</v>
+        <v>4.503109455108643</v>
       </c>
       <c r="B131" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C131" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D131" t="s">
         <v>27</v>
@@ -5824,21 +5848,27 @@
         <v>27</v>
       </c>
       <c r="H131" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I131" t="s">
-        <v>450</v>
+        <v>75</v>
+      </c>
+      <c r="J131" t="s">
+        <v>451</v>
+      </c>
+      <c r="K131" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.5078558921813965</v>
+        <v>4.503109455108643</v>
       </c>
       <c r="B132" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C132" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D132" t="s">
         <v>27</v>
@@ -5853,27 +5883,27 @@
         <v>27</v>
       </c>
       <c r="H132" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J132" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K132" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4.505489349365234</v>
+        <v>4.441695213317871</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C133" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
@@ -5888,27 +5918,27 @@
         <v>27</v>
       </c>
       <c r="H133" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I133" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J133" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.441695213317871</v>
+        <v>4.363612174987793</v>
       </c>
       <c r="B134" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C134" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D134" t="s">
         <v>27</v>
@@ -5923,27 +5953,27 @@
         <v>27</v>
       </c>
       <c r="H134" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I134" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J134" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.366889476776123</v>
+        <v>4.112269878387451</v>
       </c>
       <c r="B135" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D135" t="s">
         <v>27</v>
@@ -5958,27 +5988,27 @@
         <v>27</v>
       </c>
       <c r="H135" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I135" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J135" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K135" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.118099212646484</v>
+        <v>4.088136196136475</v>
       </c>
       <c r="B136" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C136" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
@@ -5993,27 +6023,27 @@
         <v>27</v>
       </c>
       <c r="H136" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I136" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J136" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4.100370407104492</v>
+        <v>4.075546741485596</v>
       </c>
       <c r="B137" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C137" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -6028,27 +6058,27 @@
         <v>27</v>
       </c>
       <c r="H137" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I137" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J137" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.075546741485596</v>
+        <v>3.9420080184936523</v>
       </c>
       <c r="B138" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C138" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D138" t="s">
         <v>27</v>
@@ -6063,51 +6093,16 @@
         <v>27</v>
       </c>
       <c r="H138" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I138" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J138" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K138" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>3.950608253479004</v>
-      </c>
-      <c r="B139" t="s">
-        <v>479</v>
-      </c>
-      <c r="C139" t="s">
-        <v>480</v>
-      </c>
-      <c r="D139" t="s">
-        <v>27</v>
-      </c>
-      <c r="E139" t="s">
-        <v>28</v>
-      </c>
-      <c r="F139" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" t="s">
-        <v>481</v>
-      </c>
-      <c r="I139" t="s">
-        <v>76</v>
-      </c>
-      <c r="J139" t="s">
-        <v>482</v>
-      </c>
-      <c r="K139" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6202,31 +6197,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.520578384399414</v>
+        <v>7.520413398742676</v>
       </c>
       <c r="B2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>483</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>484</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.006959915161133</v>
+      </c>
+      <c r="B3" t="s">
         <v>485</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
         <v>486</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>487</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +6345,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.833556652069092</v>
+        <v>6.258062362670898</v>
       </c>
       <c r="B2" t="s">
         <v>488</v>
@@ -6345,18 +6369,24 @@
         <v>491</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.25764274597168</v>
+        <v>6.152594089508057</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s">
         <v>490</v>
@@ -6371,21 +6401,15 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>495</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.152700901031494</v>
+        <v>6.031559944152832</v>
       </c>
       <c r="B4" t="s">
         <v>496</v>
@@ -6409,18 +6433,24 @@
         <v>498</v>
       </c>
       <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.028794765472412</v>
+        <v>5.764568328857422</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D5" t="s">
         <v>490</v>
@@ -6435,21 +6465,15 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>502</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.655666351318359</v>
+        <v>5.655330657958984</v>
       </c>
       <c r="B6" t="s">
         <v>503</v>
@@ -6478,7 +6502,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.6374897956848145</v>
+        <v>5.636788845062256</v>
       </c>
       <c r="B7" t="s">
         <v>506</v>
@@ -6502,12 +6526,12 @@
         <v>508</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.604198932647705</v>
+        <v>5.606838226318359</v>
       </c>
       <c r="B8" t="s">
         <v>509</v>
@@ -6536,7 +6560,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.41300630569458</v>
+        <v>5.4144721031188965</v>
       </c>
       <c r="B9" t="s">
         <v>512</v>
@@ -6560,18 +6584,18 @@
         <v>514</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
         <v>515</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.209649085998535</v>
+        <v>5.211521148681641</v>
       </c>
       <c r="B10" t="s">
         <v>516</v>
@@ -6600,7 +6624,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.058615684509277</v>
+        <v>5.067814350128174</v>
       </c>
       <c r="B11" t="s">
         <v>519</v>
@@ -6629,7 +6653,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.987330913543701</v>
+        <v>4.996621131896973</v>
       </c>
       <c r="B12" t="s">
         <v>522</v>
@@ -6748,7 +6772,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.232754707336426</v>
+        <v>6.232710361480713</v>
       </c>
       <c r="B2" t="s">
         <v>525</v>
@@ -6777,7 +6801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.21477746963501</v>
+        <v>6.214870452880859</v>
       </c>
       <c r="B3" t="s">
         <v>530</v>
@@ -6806,7 +6830,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.9856061935424805</v>
+        <v>5.986234188079834</v>
       </c>
       <c r="B4" t="s">
         <v>534</v>
@@ -6835,7 +6859,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.719579696655273</v>
+        <v>5.794853687286377</v>
       </c>
       <c r="B5" t="s">
         <v>537</v>
@@ -6859,12 +6883,12 @@
         <v>539</v>
       </c>
       <c r="I5" t="s">
-        <v>533</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.670199394226074</v>
+        <v>5.720304012298584</v>
       </c>
       <c r="B6" t="s">
         <v>540</v>
@@ -6893,7 +6917,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.651278018951416</v>
+        <v>5.670199394226074</v>
       </c>
       <c r="B7" t="s">
         <v>543</v>
@@ -6922,7 +6946,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.635207176208496</v>
+        <v>5.66282844543457</v>
       </c>
       <c r="B8" t="s">
         <v>546</v>
@@ -6951,7 +6975,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.548389434814453</v>
+        <v>5.651278018951416</v>
       </c>
       <c r="B9" t="s">
         <v>549</v>
@@ -6980,7 +7004,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.546018123626709</v>
+        <v>5.548389434814453</v>
       </c>
       <c r="B10" t="s">
         <v>552</v>
@@ -7009,7 +7033,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.545801639556885</v>
+        <v>5.546018123626709</v>
       </c>
       <c r="B11" t="s">
         <v>555</v>
@@ -7038,7 +7062,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.477048873901367</v>
+        <v>5.545801639556885</v>
       </c>
       <c r="B12" t="s">
         <v>558</v>
@@ -7062,7 +7086,7 @@
         <v>560</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13">
@@ -7096,7 +7120,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.359977722167969</v>
+        <v>5.370142936706543</v>
       </c>
       <c r="B14" t="s">
         <v>564</v>
@@ -7125,7 +7149,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.355978012084961</v>
+        <v>5.360971927642822</v>
       </c>
       <c r="B15" t="s">
         <v>567</v>
@@ -7154,7 +7178,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.349568843841553</v>
+        <v>5.355307579040527</v>
       </c>
       <c r="B16" t="s">
         <v>570</v>
@@ -7294,18 +7318,18 @@
         <v>584</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
         <v>585</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.033323287963867</v>
+        <v>5.036129474639893</v>
       </c>
       <c r="B21" t="s">
         <v>586</v>
@@ -7422,6 +7446,70 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7.102752685546875</v>
+      </c>
+      <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>592</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.322146892547607</v>
+      </c>
+      <c r="B3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>596</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
